--- a/dir/myexel.xlsx
+++ b/dir/myexel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT TUTORIAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT TUTORIAL\dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E8815-05D1-49EE-9F30-044D2614A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A4E55F-34FF-46F4-8A75-40841830B81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>asd</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>sdf</t>
+  </si>
+  <si>
+    <t>sdaf</t>
   </si>
 </sst>
 </file>
@@ -354,14 +357,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:K11"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
@@ -376,6 +384,9 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
       <c r="I10" t="s">
         <v>1</v>
       </c>
@@ -383,6 +394,11 @@
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
